--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachVonNam/rpt_BaoCao_KHNam_DonVi_DieuChinh.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachVonNam/rpt_BaoCao_KHNam_DonVi_DieuChinh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj_web\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachVonNam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\KeHoachVonNam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -306,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,12 +392,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -585,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,32 +649,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -692,15 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,11 +999,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -1033,22 +1024,22 @@
       <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -1077,12 +1068,12 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
@@ -1115,7 +1106,7 @@
       <c r="L6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="43" t="s">
         <v>48</v>
       </c>
       <c r="N6" s="37" t="s">
@@ -1135,7 +1126,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="42"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1159,7 +1150,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="43"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1313,24 +1304,24 @@
       <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="34"/>
@@ -1734,16 +1725,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
@@ -1756,16 +1747,16 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J21:M21"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
